--- a/outputs/ProductSequence.xlsx
+++ b/outputs/ProductSequence.xlsx
@@ -351,29 +351,29 @@
         <v>0</v>
       </c>
       <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
         <v>1</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
         <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
